--- a/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports quarters.xlsx
@@ -204,7 +204,7 @@
     <t xml:space="preserve">  index".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:57:44</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:12:54</t>
   </si>
 </sst>
 </file>
@@ -36629,7 +36629,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:58:07&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:13:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>